--- a/IPL/Gujarat Titans/Ayush Badoni.xlsx
+++ b/IPL/Gujarat Titans/Ayush Badoni.xlsx
@@ -445,7 +445,7 @@
         <v>Ayush Badoni</v>
       </c>
       <c r="C2" t="str">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D2" t="str">
         <v>11</v>
@@ -454,19 +454,22 @@
         <v>1</v>
       </c>
       <c r="F2" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="str">
-        <v>72.72</v>
+        <v>190.90</v>
       </c>
       <c r="H2" t="str">
         <v>Lucknow Super Giants</v>
       </c>
       <c r="I2" t="str">
-        <v>Pune</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J2" t="str">
-        <v>May 10 2022</v>
+        <v>May 07 2023</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -480,28 +483,28 @@
         <v>8</v>
       </c>
       <c r="D3" t="str">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>72.72</v>
+        <v>133.33</v>
       </c>
       <c r="H3" t="str">
         <v>Lucknow Super Giants</v>
       </c>
       <c r="I3" t="str">
-        <v>Pune</v>
+        <v>Lucknow</v>
       </c>
       <c r="J3" t="str">
-        <v>May 10 2022</v>
+        <v>April 22 2023</v>
       </c>
       <c r="K3" t="str">
-        <v>Titans won by 62 runs</v>
+        <v/>
       </c>
     </row>
   </sheetData>
